--- a/ExpData-Ethylene.xlsx
+++ b/ExpData-Ethylene.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>H2 Exp.</t>
   </si>
@@ -152,6 +152,12 @@
   <si>
     <t>DISTANCE (mm)</t>
   </si>
+  <si>
+    <t>T (K)</t>
+  </si>
+  <si>
+    <t>d (cm)</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0E+0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,6 +201,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -218,7 +231,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,6 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -568,15 +582,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU36"/>
+  <dimension ref="A1:AY36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="BB8" sqref="BB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -612,14 +626,15 @@
     <col min="44" max="44" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="46" max="47" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:51">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:51">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -755,8 +770,14 @@
       <c r="AU4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AX4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY4" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:51">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -893,8 +914,14 @@
       <c r="AU5">
         <v>4.8076872727272731E-5</v>
       </c>
+      <c r="AX5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="8">
+        <v>480</v>
+      </c>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:51">
       <c r="A6" s="2">
         <v>1.5</v>
       </c>
@@ -1031,8 +1058,14 @@
       <c r="AU6">
         <v>1.3374383743315507E-4</v>
       </c>
+      <c r="AX6" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AY6" s="8">
+        <v>500</v>
+      </c>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:51">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1169,8 +1202,14 @@
       <c r="AU7">
         <v>2.2094868716577537E-4</v>
       </c>
+      <c r="AX7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AY7" s="8">
+        <v>550</v>
+      </c>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:51">
       <c r="A8" s="2">
         <v>2.5</v>
       </c>
@@ -1307,8 +1346,14 @@
       <c r="AU8">
         <v>2.9106759999999998E-4</v>
       </c>
+      <c r="AX8" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="AY8" s="8">
+        <v>596</v>
+      </c>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:51">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -1445,8 +1490,14 @@
       <c r="AU9">
         <v>1.9177545347593582E-4</v>
       </c>
+      <c r="AX9" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="AY9" s="8">
+        <v>660</v>
+      </c>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:51">
       <c r="A10" s="2">
         <v>3.5</v>
       </c>
@@ -1583,8 +1634,14 @@
       <c r="AU10">
         <v>6.3263752406417126E-5</v>
       </c>
+      <c r="AX10" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="AY10" s="8">
+        <v>729</v>
+      </c>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:51">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -1721,8 +1778,14 @@
       <c r="AU11">
         <v>2.0896414438502672E-5</v>
       </c>
+      <c r="AX11" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="AY11" s="8">
+        <v>806</v>
+      </c>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:51">
       <c r="A12" s="2">
         <v>4.5</v>
       </c>
@@ -1859,8 +1922,14 @@
       <c r="AU12">
         <v>1.7168825133689842E-5</v>
       </c>
+      <c r="AX12" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="AY12" s="8">
+        <v>895</v>
+      </c>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:51">
       <c r="A13" s="2">
         <v>5</v>
       </c>
@@ -1997,8 +2066,14 @@
       <c r="AU13">
         <v>1.261108128342246E-5</v>
       </c>
+      <c r="AX13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AY13" s="8">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:51">
       <c r="A14" s="2">
         <v>5.5</v>
       </c>
@@ -2135,8 +2210,14 @@
       <c r="AU14">
         <v>7.7877427807486617E-6</v>
       </c>
+      <c r="AX14" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AY14" s="8">
+        <v>1120</v>
+      </c>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:51">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -2273,8 +2354,14 @@
       <c r="AU15">
         <v>3.2305208556149736E-6</v>
       </c>
+      <c r="AX15" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="AY15" s="8">
+        <v>1239</v>
+      </c>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:51">
       <c r="A16" s="2">
         <v>6.5</v>
       </c>
@@ -2411,8 +2498,14 @@
       <c r="AU16">
         <v>1.6981486631016047E-6</v>
       </c>
+      <c r="AX16" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="AY16" s="8">
+        <v>1353</v>
+      </c>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:51">
       <c r="A17" s="2">
         <v>7</v>
       </c>
@@ -2549,8 +2642,14 @@
       <c r="AU17">
         <v>1.3909631016042782E-6</v>
       </c>
+      <c r="AX17" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="AY17" s="8">
+        <v>1458</v>
+      </c>
     </row>
-    <row r="18" spans="1:47">
+    <row r="18" spans="1:51">
       <c r="A18" s="2">
         <v>7.5</v>
       </c>
@@ -2672,8 +2771,14 @@
       <c r="AO18" s="3">
         <v>9.7918390755999407E-7</v>
       </c>
+      <c r="AX18" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AY18" s="8">
+        <v>1556</v>
+      </c>
     </row>
-    <row r="19" spans="1:47">
+    <row r="19" spans="1:51">
       <c r="A19" s="2">
         <v>8</v>
       </c>
@@ -2795,8 +2900,14 @@
       <c r="AO19" s="3">
         <v>1.2720395966572414E-6</v>
       </c>
+      <c r="AX19" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="AY19" s="8">
+        <v>1627</v>
+      </c>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:51">
       <c r="A20" s="2">
         <v>8.5</v>
       </c>
@@ -2918,8 +3029,14 @@
       <c r="AO20" s="3">
         <v>1.3369264050258261E-6</v>
       </c>
+      <c r="AX20" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="AY20" s="8">
+        <v>1682</v>
+      </c>
     </row>
-    <row r="21" spans="1:47">
+    <row r="21" spans="1:51">
       <c r="A21" s="2">
         <v>9</v>
       </c>
@@ -3041,8 +3158,14 @@
       <c r="AO21" s="3">
         <v>1.0912851034216957E-6</v>
       </c>
+      <c r="AX21" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="AY21" s="8">
+        <v>1728</v>
+      </c>
     </row>
-    <row r="22" spans="1:47">
+    <row r="22" spans="1:51">
       <c r="A22" s="2">
         <v>9.5</v>
       </c>
@@ -3164,8 +3287,14 @@
       <c r="AO22" s="3">
         <v>8.494118197284484E-7</v>
       </c>
+      <c r="AX22" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="AY22" s="8">
+        <v>1759</v>
+      </c>
     </row>
-    <row r="23" spans="1:47">
+    <row r="23" spans="1:51">
       <c r="A23" s="2">
         <v>10</v>
       </c>
@@ -3287,8 +3416,14 @@
       <c r="AO23" s="3">
         <v>7.0372466817863252E-7</v>
       </c>
+      <c r="AX23" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY23" s="8">
+        <v>1775</v>
+      </c>
     </row>
-    <row r="24" spans="1:47">
+    <row r="24" spans="1:51">
       <c r="A24" s="2">
         <v>10.5</v>
       </c>
@@ -3410,8 +3545,14 @@
       <c r="AO24" s="3">
         <v>5.9203920740376508E-7</v>
       </c>
+      <c r="AX24" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AY24" s="8">
+        <v>1799</v>
+      </c>
     </row>
-    <row r="25" spans="1:47">
+    <row r="25" spans="1:51">
       <c r="A25" s="2">
         <v>11</v>
       </c>
@@ -3533,8 +3674,14 @@
       <c r="AO25" s="3">
         <v>5.0175898557736761E-7</v>
       </c>
+      <c r="AX25" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="AY25" s="8">
+        <v>1817</v>
+      </c>
     </row>
-    <row r="26" spans="1:47">
+    <row r="26" spans="1:51">
       <c r="A26" s="2">
         <v>11.5</v>
       </c>
@@ -3656,8 +3803,14 @@
       <c r="AO26" s="3">
         <v>4.2422331260641007E-7</v>
       </c>
+      <c r="AX26" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="AY26" s="8">
+        <v>1819.6</v>
+      </c>
     </row>
-    <row r="27" spans="1:47">
+    <row r="27" spans="1:51">
       <c r="A27" s="2">
         <v>12</v>
       </c>
@@ -3779,8 +3932,14 @@
       <c r="AO27" s="3">
         <v>3.5649805983142345E-7</v>
       </c>
+      <c r="AX27" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="AY27" s="8">
+        <v>1819.6</v>
+      </c>
     </row>
-    <row r="28" spans="1:47">
+    <row r="28" spans="1:51">
       <c r="A28" s="2">
         <v>13</v>
       </c>
@@ -3902,8 +4061,14 @@
       <c r="AO28" s="3">
         <v>2.4578891135526965E-7</v>
       </c>
+      <c r="AX28" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="AY28" s="8">
+        <v>1817</v>
+      </c>
     </row>
-    <row r="29" spans="1:47">
+    <row r="29" spans="1:51">
       <c r="A29" s="2">
         <v>14</v>
       </c>
@@ -4025,8 +4190,14 @@
       <c r="AO29" s="3">
         <v>1.5149625187252902E-7</v>
       </c>
+      <c r="AX29" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="AY29" s="8">
+        <v>1814</v>
+      </c>
     </row>
-    <row r="30" spans="1:47">
+    <row r="30" spans="1:51">
       <c r="A30" s="2">
         <v>15</v>
       </c>
@@ -4148,8 +4319,14 @@
       <c r="AO30" s="3">
         <v>7.3264453474205204E-8</v>
       </c>
+      <c r="AX30" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY30" s="8">
+        <v>1811</v>
+      </c>
     </row>
-    <row r="31" spans="1:47">
+    <row r="31" spans="1:51">
       <c r="A31" s="2">
         <v>17</v>
       </c>
@@ -4271,8 +4448,14 @@
       <c r="AO31" s="3">
         <v>0</v>
       </c>
+      <c r="AX31" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="AY31" s="8">
+        <v>1803</v>
+      </c>
     </row>
-    <row r="32" spans="1:47">
+    <row r="32" spans="1:51">
       <c r="A32" s="2">
         <v>20</v>
       </c>
@@ -4394,8 +4577,14 @@
       <c r="AO32" s="3">
         <v>0</v>
       </c>
+      <c r="AX32" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AY32" s="8">
+        <v>1795</v>
+      </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:51">
       <c r="A33" s="2">
         <v>22</v>
       </c>
@@ -4517,8 +4706,14 @@
       <c r="AO33" s="3">
         <v>0</v>
       </c>
+      <c r="AX33" s="8">
+        <v>2.75</v>
+      </c>
+      <c r="AY33" s="8">
+        <v>1786</v>
+      </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:51">
       <c r="A34" s="2">
         <v>25</v>
       </c>
@@ -4640,8 +4835,14 @@
       <c r="AO34" s="3">
         <v>0</v>
       </c>
+      <c r="AX34" s="8">
+        <v>3</v>
+      </c>
+      <c r="AY34" s="8">
+        <v>1775</v>
+      </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:51">
       <c r="A35" s="2">
         <v>27</v>
       </c>
@@ -4763,8 +4964,14 @@
       <c r="AO35" s="3">
         <v>0</v>
       </c>
+      <c r="AX35" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="AY35" s="8">
+        <v>1760</v>
+      </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:51">
       <c r="A36" s="2">
         <v>30</v>
       </c>
